--- a/Demokrata.xlsx
+++ b/Demokrata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krenedits Ferenc\Desktop\Munka\demokrata-ujsag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7725627-9736-4EA7-B3CF-F9164F3DBDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Munka2" sheetId="1" r:id="rId1"/>
@@ -87,9 +86,6 @@
     <t>1995. 1. szám:   5. rész</t>
   </si>
   <si>
-    <t>1995. 2. szám:   6. szám</t>
-  </si>
-  <si>
     <t>1995. 3. szám:   7. rész</t>
   </si>
   <si>
@@ -747,6 +743,9 @@
     <t>1992. 1. szám:    Nem eladó? Eladó?</t>
   </si>
   <si>
+    <t xml:space="preserve"> Nem eladó? Eladó?</t>
+  </si>
+  <si>
     <t>1992. 2. szám:    Helyreigazítás</t>
   </si>
   <si>
@@ -768,6 +767,9 @@
     <t xml:space="preserve">1992. 3. szám: Önkormányzati hírek   </t>
   </si>
   <si>
+    <t xml:space="preserve"> Önkormányzati EZ+AZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">1992. 4. szám, 5. oldal   </t>
   </si>
   <si>
@@ -2022,17 +2024,14 @@
     <t>1992. 1. szám:   Társadalombiztosítás - szabad orvosválasztás</t>
   </si>
   <si>
-    <t>Önkormányzati EZ+AZ</t>
-  </si>
-  <si>
-    <t>Nem eladó? Eladó?</t>
+    <t>1995. 2. szám:   6. rész</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2042,6 +2041,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2070,9 +2078,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2352,12 +2361,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:G628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="G223" sqref="G223"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="A584" sqref="A584:XFD584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,26 +2565,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>1994</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2602,49 +2611,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>1995</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1995</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2662,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -2685,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -2708,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -2731,7 +2740,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -2754,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -2777,7 +2786,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -2800,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -2820,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -2840,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -2860,10 +2869,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
         <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2880,10 +2889,10 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2900,10 +2909,10 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2920,10 +2929,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2940,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2960,10 +2969,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2980,10 +2989,10 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3000,10 +3009,10 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3020,10 +3029,10 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3040,10 +3049,10 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,10 +3069,10 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,10 +3089,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,10 +3109,10 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3120,10 +3129,10 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -3140,10 +3149,10 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,10 +3169,10 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3180,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,10 +3209,10 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3220,10 +3229,10 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3240,10 +3249,10 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -3260,10 +3269,10 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3280,10 +3289,10 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3300,10 +3309,10 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3320,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -3340,10 +3349,10 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3360,10 +3369,10 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3380,10 +3389,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3400,10 +3409,10 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3420,10 +3429,10 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
         <v>59</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3440,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3460,10 +3469,10 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3480,10 +3489,10 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3500,10 +3509,10 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3520,10 +3529,10 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3540,10 +3549,10 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3560,10 +3569,10 @@
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3580,10 +3589,10 @@
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3600,10 +3609,10 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3620,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3640,10 +3649,10 @@
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3660,10 +3669,10 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3680,10 +3689,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3700,10 +3709,10 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3720,10 +3729,10 @@
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -3740,10 +3749,10 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3760,10 +3769,10 @@
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3780,10 +3789,10 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -3800,10 +3809,10 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s">
         <v>79</v>
-      </c>
-      <c r="F70" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3820,10 +3829,10 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3840,10 +3849,10 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3860,10 +3869,10 @@
         <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3880,13 +3889,13 @@
         <v>11</v>
       </c>
       <c r="E74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s">
         <v>84</v>
-      </c>
-      <c r="F74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3903,13 +3912,13 @@
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3926,13 +3935,13 @@
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3949,13 +3958,13 @@
         <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3972,13 +3981,13 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3995,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4015,10 +4024,10 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4035,10 +4044,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4055,10 +4064,10 @@
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4075,10 +4084,10 @@
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4095,10 +4104,10 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4115,10 +4124,10 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4135,10 +4144,10 @@
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -4155,10 +4164,10 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4175,10 +4184,10 @@
         <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4195,10 +4204,10 @@
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4215,10 +4224,10 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4235,13 +4244,13 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s">
         <v>102</v>
-      </c>
-      <c r="F91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G91" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4258,13 +4267,13 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4281,10 +4290,10 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4301,10 +4310,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -4321,10 +4330,10 @@
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4341,10 +4350,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4361,10 +4370,10 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -4381,10 +4390,10 @@
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -4401,10 +4410,10 @@
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -4421,10 +4430,10 @@
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -4441,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -4461,10 +4470,10 @@
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -4481,10 +4490,10 @@
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4501,10 +4510,10 @@
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -4521,10 +4530,10 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -4541,10 +4550,10 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -4561,10 +4570,10 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -4581,10 +4590,10 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -4601,10 +4610,10 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -4621,10 +4630,10 @@
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -4641,10 +4650,10 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -4661,13 +4670,13 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
+        <v>123</v>
+      </c>
+      <c r="F112" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" t="s">
         <v>124</v>
-      </c>
-      <c r="F112" t="s">
-        <v>80</v>
-      </c>
-      <c r="G112" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -4684,36 +4693,36 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
+        <v>125</v>
+      </c>
+      <c r="F113" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
+        <v>16</v>
+      </c>
+      <c r="D114" s="1">
+        <v>15</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F113" t="s">
-        <v>80</v>
-      </c>
-      <c r="G113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>1993</v>
-      </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-      <c r="C114">
-        <v>16</v>
-      </c>
-      <c r="D114">
-        <v>15</v>
-      </c>
-      <c r="E114" t="s">
-        <v>127</v>
-      </c>
-      <c r="F114" t="s">
-        <v>80</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
+      <c r="F114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -4730,13 +4739,13 @@
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -4753,13 +4762,13 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -4776,13 +4785,13 @@
         <v>9</v>
       </c>
       <c r="E117" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" t="s">
+        <v>79</v>
+      </c>
+      <c r="G117" t="s">
         <v>130</v>
-      </c>
-      <c r="F117" t="s">
-        <v>80</v>
-      </c>
-      <c r="G117" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -4799,13 +4808,13 @@
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -4822,10 +4831,10 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -4842,10 +4851,10 @@
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4862,10 +4871,10 @@
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4882,10 +4891,10 @@
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4902,10 +4911,10 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4922,10 +4931,10 @@
         <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -4942,10 +4951,10 @@
         <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -4962,10 +4971,10 @@
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -4982,13 +4991,13 @@
         <v>7</v>
       </c>
       <c r="E127" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" t="s">
+        <v>79</v>
+      </c>
+      <c r="G127" t="s">
         <v>141</v>
-      </c>
-      <c r="F127" t="s">
-        <v>80</v>
-      </c>
-      <c r="G127" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -5005,13 +5014,13 @@
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -5028,10 +5037,10 @@
         <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -5048,10 +5057,10 @@
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -5068,10 +5077,10 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F131" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -5088,10 +5097,10 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -5108,10 +5117,10 @@
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F133" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -5128,10 +5137,10 @@
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -5148,10 +5157,10 @@
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -5168,10 +5177,10 @@
         <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -5188,10 +5197,10 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -5208,10 +5217,10 @@
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -5228,10 +5237,10 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -5248,10 +5257,10 @@
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -5268,10 +5277,10 @@
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -5288,10 +5297,10 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -5308,10 +5317,10 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F143" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -5328,10 +5337,10 @@
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F144" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5348,10 +5357,10 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F145" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5368,10 +5377,10 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -5388,10 +5397,10 @@
         <v>6</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5408,10 +5417,10 @@
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F148" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -5428,10 +5437,10 @@
         <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F149" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5448,10 +5457,10 @@
         <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F150" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5468,10 +5477,10 @@
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F151" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5488,10 +5497,10 @@
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F152" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5508,10 +5517,10 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5528,10 +5537,10 @@
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F154" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5548,10 +5557,10 @@
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5568,10 +5577,10 @@
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5588,10 +5597,10 @@
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F157" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5608,10 +5617,10 @@
         <v>8</v>
       </c>
       <c r="E158" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F158" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5628,10 +5637,10 @@
         <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F159" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5647,14 +5656,14 @@
       <c r="D160">
         <v>11</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>656</v>
+      <c r="E160" t="s">
+        <v>657</v>
       </c>
       <c r="F160" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5671,13 +5680,13 @@
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F161" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5694,10 +5703,10 @@
         <v>6</v>
       </c>
       <c r="E162" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F162" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -5714,10 +5723,10 @@
         <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5734,10 +5743,10 @@
         <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F164" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5754,10 +5763,10 @@
         <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F165" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5774,10 +5783,10 @@
         <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F166" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5794,10 +5803,10 @@
         <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F167" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5814,10 +5823,10 @@
         <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5834,13 +5843,13 @@
         <v>9</v>
       </c>
       <c r="E169" t="s">
+        <v>183</v>
+      </c>
+      <c r="F169" t="s">
+        <v>79</v>
+      </c>
+      <c r="G169" t="s">
         <v>184</v>
-      </c>
-      <c r="F169" t="s">
-        <v>80</v>
-      </c>
-      <c r="G169" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5857,13 +5866,13 @@
         <v>4</v>
       </c>
       <c r="E170" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F170" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G170" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5880,10 +5889,10 @@
         <v>6</v>
       </c>
       <c r="E171" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F171" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5900,10 +5909,10 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5920,10 +5929,10 @@
         <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5940,10 +5949,10 @@
         <v>8</v>
       </c>
       <c r="E174" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5960,10 +5969,10 @@
         <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F175" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5980,10 +5989,10 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F176" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -6000,10 +6009,10 @@
         <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F177" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -6020,10 +6029,10 @@
         <v>8</v>
       </c>
       <c r="E178" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F178" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -6040,10 +6049,10 @@
         <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F179" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -6060,10 +6069,10 @@
         <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F180" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -6080,10 +6089,10 @@
         <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F181" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -6100,10 +6109,10 @@
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F182" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -6120,10 +6129,10 @@
         <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F183" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -6140,10 +6149,10 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F184" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -6160,10 +6169,10 @@
         <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F185" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -6180,10 +6189,10 @@
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F186" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -6200,10 +6209,10 @@
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F187" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -6220,10 +6229,10 @@
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -6240,10 +6249,10 @@
         <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F189" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -6260,10 +6269,10 @@
         <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F190" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -6280,10 +6289,10 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F191" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -6300,10 +6309,10 @@
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -6320,10 +6329,10 @@
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -6340,10 +6349,10 @@
         <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -6360,10 +6369,10 @@
         <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F195" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -6380,10 +6389,10 @@
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -6400,10 +6409,10 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -6419,11 +6428,11 @@
       <c r="D198">
         <v>5</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>657</v>
+      <c r="E198" t="s">
+        <v>658</v>
       </c>
       <c r="F198" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -6440,10 +6449,10 @@
         <v>9</v>
       </c>
       <c r="E199" t="s">
+        <v>213</v>
+      </c>
+      <c r="F199" t="s">
         <v>214</v>
-      </c>
-      <c r="F199" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -6460,10 +6469,10 @@
         <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F200" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -6480,10 +6489,10 @@
         <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F201" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -6500,13 +6509,13 @@
         <v>1</v>
       </c>
       <c r="E202" t="s">
+        <v>217</v>
+      </c>
+      <c r="F202" t="s">
+        <v>214</v>
+      </c>
+      <c r="G202" t="s">
         <v>218</v>
-      </c>
-      <c r="F202" t="s">
-        <v>215</v>
-      </c>
-      <c r="G202" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -6523,13 +6532,13 @@
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -6546,13 +6555,13 @@
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F204" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G204" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -6569,10 +6578,10 @@
         <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F205" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -6589,10 +6598,10 @@
         <v>2</v>
       </c>
       <c r="E206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F206" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -6609,10 +6618,10 @@
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F207" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6629,10 +6638,10 @@
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F208" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6649,10 +6658,10 @@
         <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F209" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6669,10 +6678,10 @@
         <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F210" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6689,10 +6698,10 @@
         <v>6</v>
       </c>
       <c r="E211" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F211" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6709,13 +6718,13 @@
         <v>7</v>
       </c>
       <c r="E212" t="s">
+        <v>228</v>
+      </c>
+      <c r="F212" t="s">
+        <v>214</v>
+      </c>
+      <c r="G212" t="s">
         <v>229</v>
-      </c>
-      <c r="F212" t="s">
-        <v>215</v>
-      </c>
-      <c r="G212" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6732,13 +6741,13 @@
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G213" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6755,13 +6764,13 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G214" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6778,10 +6787,10 @@
         <v>8</v>
       </c>
       <c r="E215" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6798,10 +6807,10 @@
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6818,10 +6827,10 @@
         <v>6</v>
       </c>
       <c r="E217" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6838,10 +6847,10 @@
         <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F218" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6858,10 +6867,10 @@
         <v>15</v>
       </c>
       <c r="E219" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F219" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6878,10 +6887,10 @@
         <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F220" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6898,13 +6907,13 @@
         <v>3</v>
       </c>
       <c r="E221" t="s">
+        <v>238</v>
+      </c>
+      <c r="F221" t="s">
+        <v>214</v>
+      </c>
+      <c r="G221" t="s">
         <v>239</v>
-      </c>
-      <c r="F221" t="s">
-        <v>215</v>
-      </c>
-      <c r="G221" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6924,10 +6933,10 @@
         <v>240</v>
       </c>
       <c r="F222" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G222" t="s">
-        <v>666</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6947,7 +6956,7 @@
         <v>241</v>
       </c>
       <c r="F223" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6967,7 +6976,7 @@
         <v>242</v>
       </c>
       <c r="F224" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6987,7 +6996,7 @@
         <v>243</v>
       </c>
       <c r="F225" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -7007,7 +7016,7 @@
         <v>244</v>
       </c>
       <c r="F226" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -7027,7 +7036,7 @@
         <v>245</v>
       </c>
       <c r="F227" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -7047,10 +7056,10 @@
         <v>246</v>
       </c>
       <c r="F228" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G228" t="s">
-        <v>665</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -7067,13 +7076,13 @@
         <v>5</v>
       </c>
       <c r="E229" t="s">
+        <v>248</v>
+      </c>
+      <c r="F229" t="s">
+        <v>214</v>
+      </c>
+      <c r="G229" t="s">
         <v>247</v>
-      </c>
-      <c r="F229" t="s">
-        <v>215</v>
-      </c>
-      <c r="G229" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -7090,13 +7099,13 @@
         <v>15</v>
       </c>
       <c r="E230" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F230" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G230" t="s">
-        <v>665</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -7113,13 +7122,13 @@
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F231" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G231" t="s">
-        <v>665</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -7136,13 +7145,13 @@
         <v>8</v>
       </c>
       <c r="E232" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F232" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G232" t="s">
-        <v>665</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -7159,13 +7168,13 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G233" t="s">
-        <v>665</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -7182,10 +7191,10 @@
         <v>5</v>
       </c>
       <c r="E234" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F234" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -7202,10 +7211,10 @@
         <v>15</v>
       </c>
       <c r="E235" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F235" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -7222,10 +7231,10 @@
         <v>14</v>
       </c>
       <c r="E236" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F236" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -7242,10 +7251,10 @@
         <v>16</v>
       </c>
       <c r="E237" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F237" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -7262,10 +7271,10 @@
         <v>16</v>
       </c>
       <c r="E238" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F238" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -7282,10 +7291,10 @@
         <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F239" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7302,10 +7311,10 @@
         <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F240" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -7322,10 +7331,10 @@
         <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -7342,10 +7351,10 @@
         <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F242" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -7362,10 +7371,10 @@
         <v>2</v>
       </c>
       <c r="E243" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F243" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -7382,10 +7391,10 @@
         <v>3</v>
       </c>
       <c r="E244" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F244" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7402,10 +7411,10 @@
         <v>8</v>
       </c>
       <c r="E245" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F245" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7422,10 +7431,10 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F246" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7442,10 +7451,10 @@
         <v>1</v>
       </c>
       <c r="E247" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F247" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7462,10 +7471,10 @@
         <v>14</v>
       </c>
       <c r="E248" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F248" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7482,10 +7491,10 @@
         <v>2</v>
       </c>
       <c r="E249" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F249" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -7502,10 +7511,10 @@
         <v>13</v>
       </c>
       <c r="E250" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F250" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7522,10 +7531,10 @@
         <v>4</v>
       </c>
       <c r="E251" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F251" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7542,10 +7551,10 @@
         <v>12</v>
       </c>
       <c r="E252" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F252" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7562,13 +7571,13 @@
         <v>13</v>
       </c>
       <c r="E253" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F253" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G253" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7585,13 +7594,13 @@
         <v>5</v>
       </c>
       <c r="E254" t="s">
+        <v>274</v>
+      </c>
+      <c r="F254" t="s">
+        <v>214</v>
+      </c>
+      <c r="G254" t="s">
         <v>273</v>
-      </c>
-      <c r="F254" t="s">
-        <v>215</v>
-      </c>
-      <c r="G254" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7608,10 +7617,10 @@
         <v>8</v>
       </c>
       <c r="E255" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F255" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7628,10 +7637,10 @@
         <v>8</v>
       </c>
       <c r="E256" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F256" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -7648,10 +7657,10 @@
         <v>8</v>
       </c>
       <c r="E257" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F257" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -7668,30 +7677,30 @@
         <v>3</v>
       </c>
       <c r="E258" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F258" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
         <v>1994</v>
       </c>
-      <c r="B259">
-        <v>2</v>
-      </c>
-      <c r="C259">
-        <v>16</v>
-      </c>
-      <c r="D259">
-        <v>7</v>
-      </c>
-      <c r="E259" t="s">
-        <v>278</v>
-      </c>
-      <c r="F259" t="s">
-        <v>215</v>
+      <c r="B259" s="1">
+        <v>2</v>
+      </c>
+      <c r="C259" s="1">
+        <v>16</v>
+      </c>
+      <c r="D259" s="2">
+        <v>6</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -7708,10 +7717,10 @@
         <v>2</v>
       </c>
       <c r="E260" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F260" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -7728,10 +7737,10 @@
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F261" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -7748,10 +7757,10 @@
         <v>8</v>
       </c>
       <c r="E262" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F262" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -7768,10 +7777,10 @@
         <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F263" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -7788,10 +7797,10 @@
         <v>10</v>
       </c>
       <c r="E264" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F264" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -7808,10 +7817,10 @@
         <v>13</v>
       </c>
       <c r="E265" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F265" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -7828,10 +7837,10 @@
         <v>6</v>
       </c>
       <c r="E266" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F266" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -7848,10 +7857,10 @@
         <v>6</v>
       </c>
       <c r="E267" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F267" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -7868,10 +7877,10 @@
         <v>13</v>
       </c>
       <c r="E268" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F268" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -7888,10 +7897,10 @@
         <v>6</v>
       </c>
       <c r="E269" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F269" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -7908,10 +7917,10 @@
         <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F270" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -7928,10 +7937,10 @@
         <v>1</v>
       </c>
       <c r="E271" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F271" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7948,10 +7957,10 @@
         <v>7</v>
       </c>
       <c r="E272" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F272" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -7968,10 +7977,10 @@
         <v>11</v>
       </c>
       <c r="E273" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F273" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -7988,10 +7997,10 @@
         <v>11</v>
       </c>
       <c r="E274" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F274" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -8008,10 +8017,10 @@
         <v>1</v>
       </c>
       <c r="E275" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F275" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -8028,10 +8037,10 @@
         <v>1</v>
       </c>
       <c r="E276" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F276" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -8048,10 +8057,10 @@
         <v>6</v>
       </c>
       <c r="E277" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F277" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -8068,10 +8077,10 @@
         <v>1</v>
       </c>
       <c r="E278" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F278" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -8088,10 +8097,10 @@
         <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F279" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -8108,10 +8117,10 @@
         <v>4</v>
       </c>
       <c r="E280" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F280" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -8128,10 +8137,10 @@
         <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F281" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -8148,10 +8157,10 @@
         <v>1</v>
       </c>
       <c r="E282" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F282" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -8168,10 +8177,10 @@
         <v>4</v>
       </c>
       <c r="E283" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F283" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -8188,10 +8197,10 @@
         <v>4</v>
       </c>
       <c r="E284" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F284" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -8208,10 +8217,10 @@
         <v>5</v>
       </c>
       <c r="E285" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F285" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -8228,13 +8237,13 @@
         <v>2</v>
       </c>
       <c r="E286" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F286" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G286" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -8251,13 +8260,13 @@
         <v>4</v>
       </c>
       <c r="E287" t="s">
+        <v>308</v>
+      </c>
+      <c r="F287" t="s">
+        <v>214</v>
+      </c>
+      <c r="G287" t="s">
         <v>307</v>
-      </c>
-      <c r="F287" t="s">
-        <v>215</v>
-      </c>
-      <c r="G287" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -8274,10 +8283,10 @@
         <v>3</v>
       </c>
       <c r="E288" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F288" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -8294,10 +8303,10 @@
         <v>6</v>
       </c>
       <c r="E289" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F289" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -8314,10 +8323,10 @@
         <v>10</v>
       </c>
       <c r="E290" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F290" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -8334,10 +8343,10 @@
         <v>2</v>
       </c>
       <c r="E291" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F291" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -8354,13 +8363,13 @@
         <v>6</v>
       </c>
       <c r="E292" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F292" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -8377,13 +8386,13 @@
         <v>8</v>
       </c>
       <c r="E293" t="s">
+        <v>315</v>
+      </c>
+      <c r="F293" t="s">
+        <v>214</v>
+      </c>
+      <c r="G293" t="s">
         <v>314</v>
-      </c>
-      <c r="F293" t="s">
-        <v>215</v>
-      </c>
-      <c r="G293" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -8400,10 +8409,10 @@
         <v>8</v>
       </c>
       <c r="E294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F294" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -8420,10 +8429,10 @@
         <v>6</v>
       </c>
       <c r="E295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F295" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -8440,10 +8449,10 @@
         <v>6</v>
       </c>
       <c r="E296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -8460,10 +8469,10 @@
         <v>10</v>
       </c>
       <c r="E297" t="s">
+        <v>319</v>
+      </c>
+      <c r="F297" t="s">
         <v>318</v>
-      </c>
-      <c r="F297" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -8480,10 +8489,10 @@
         <v>5</v>
       </c>
       <c r="E298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F298" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -8500,10 +8509,10 @@
         <v>7</v>
       </c>
       <c r="E299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F299" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -8520,10 +8529,10 @@
         <v>5</v>
       </c>
       <c r="E300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F300" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -8540,10 +8549,10 @@
         <v>15</v>
       </c>
       <c r="E301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F301" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -8560,10 +8569,10 @@
         <v>1</v>
       </c>
       <c r="E302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F302" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
@@ -8580,10 +8589,10 @@
         <v>4</v>
       </c>
       <c r="E303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F303" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -8600,10 +8609,10 @@
         <v>1</v>
       </c>
       <c r="E304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F304" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -8620,10 +8629,10 @@
         <v>8</v>
       </c>
       <c r="E305" t="s">
+        <v>328</v>
+      </c>
+      <c r="F305" t="s">
         <v>327</v>
-      </c>
-      <c r="F305" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -8640,10 +8649,10 @@
         <v>14</v>
       </c>
       <c r="E306" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F306" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -8660,10 +8669,10 @@
         <v>4</v>
       </c>
       <c r="E307" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F307" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -8680,10 +8689,10 @@
         <v>5</v>
       </c>
       <c r="E308" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F308" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -8700,10 +8709,10 @@
         <v>5</v>
       </c>
       <c r="E309" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F309" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -8720,10 +8729,10 @@
         <v>11</v>
       </c>
       <c r="E310" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F310" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -8740,10 +8749,10 @@
         <v>7</v>
       </c>
       <c r="E311" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F311" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -8760,10 +8769,10 @@
         <v>9</v>
       </c>
       <c r="E312" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F312" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -8780,10 +8789,10 @@
         <v>10</v>
       </c>
       <c r="E313" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F313" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -8800,10 +8809,10 @@
         <v>12</v>
       </c>
       <c r="E314" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F314" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -8820,10 +8829,10 @@
         <v>1</v>
       </c>
       <c r="E315" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F315" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -8840,10 +8849,10 @@
         <v>6</v>
       </c>
       <c r="E316" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F316" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -8860,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="E317" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F317" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -8880,10 +8889,10 @@
         <v>3</v>
       </c>
       <c r="E318" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F318" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -8900,10 +8909,10 @@
         <v>6</v>
       </c>
       <c r="E319" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F319" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -8920,10 +8929,10 @@
         <v>10</v>
       </c>
       <c r="E320" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F320" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -8940,10 +8949,10 @@
         <v>11</v>
       </c>
       <c r="E321" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F321" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -8960,10 +8969,10 @@
         <v>4</v>
       </c>
       <c r="E322" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F322" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -8980,10 +8989,10 @@
         <v>5</v>
       </c>
       <c r="E323" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F323" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -9000,10 +9009,10 @@
         <v>10</v>
       </c>
       <c r="E324" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F324" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -9020,10 +9029,10 @@
         <v>13</v>
       </c>
       <c r="E325" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F325" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -9040,10 +9049,10 @@
         <v>13</v>
       </c>
       <c r="E326" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F326" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -9060,10 +9069,10 @@
         <v>5</v>
       </c>
       <c r="E327" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F327" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -9080,10 +9089,10 @@
         <v>8</v>
       </c>
       <c r="E328" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F328" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -9100,10 +9109,10 @@
         <v>9</v>
       </c>
       <c r="E329" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F329" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -9120,30 +9129,30 @@
         <v>1</v>
       </c>
       <c r="E330" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F330" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
         <v>1991</v>
       </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-      <c r="C331">
-        <v>12</v>
-      </c>
-      <c r="D331">
-        <v>1</v>
-      </c>
-      <c r="E331" t="s">
-        <v>352</v>
-      </c>
-      <c r="F331" t="s">
-        <v>326</v>
+      <c r="B331" s="1">
+        <v>1</v>
+      </c>
+      <c r="C331" s="1">
+        <v>12</v>
+      </c>
+      <c r="D331" s="2">
+        <v>5</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -9160,10 +9169,10 @@
         <v>7</v>
       </c>
       <c r="E332" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F332" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -9180,10 +9189,10 @@
         <v>8</v>
       </c>
       <c r="E333" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F333" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -9200,10 +9209,10 @@
         <v>9</v>
       </c>
       <c r="E334" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F334" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -9220,10 +9229,10 @@
         <v>9</v>
       </c>
       <c r="E335" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F335" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -9240,10 +9249,10 @@
         <v>4</v>
       </c>
       <c r="E336" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F336" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -9260,10 +9269,10 @@
         <v>8</v>
       </c>
       <c r="E337" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F337" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -9280,10 +9289,10 @@
         <v>1</v>
       </c>
       <c r="E338" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F338" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -9300,10 +9309,10 @@
         <v>2</v>
       </c>
       <c r="E339" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F339" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -9320,10 +9329,10 @@
         <v>3</v>
       </c>
       <c r="E340" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F340" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -9340,10 +9349,10 @@
         <v>7</v>
       </c>
       <c r="E341" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F341" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -9360,10 +9369,10 @@
         <v>9</v>
       </c>
       <c r="E342" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F342" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -9380,10 +9389,10 @@
         <v>12</v>
       </c>
       <c r="E343" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F343" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -9400,10 +9409,10 @@
         <v>3</v>
       </c>
       <c r="E344" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F344" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -9420,10 +9429,10 @@
         <v>9</v>
       </c>
       <c r="E345" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F345" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -9440,10 +9449,10 @@
         <v>10</v>
       </c>
       <c r="E346" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F346" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -9460,10 +9469,10 @@
         <v>14</v>
       </c>
       <c r="E347" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F347" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -9480,10 +9489,10 @@
         <v>14</v>
       </c>
       <c r="E348" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F348" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -9500,10 +9509,10 @@
         <v>2</v>
       </c>
       <c r="E349" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F349" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -9520,10 +9529,10 @@
         <v>7</v>
       </c>
       <c r="E350" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F350" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -9540,10 +9549,10 @@
         <v>7</v>
       </c>
       <c r="E351" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F351" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -9560,10 +9569,10 @@
         <v>8</v>
       </c>
       <c r="E352" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F352" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -9580,10 +9589,10 @@
         <v>11</v>
       </c>
       <c r="E353" t="s">
+        <v>376</v>
+      </c>
+      <c r="F353" t="s">
         <v>375</v>
-      </c>
-      <c r="F353" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -9600,10 +9609,10 @@
         <v>1</v>
       </c>
       <c r="E354" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F354" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -9619,11 +9628,11 @@
       <c r="D355">
         <v>6</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>658</v>
+      <c r="E355" t="s">
+        <v>659</v>
       </c>
       <c r="F355" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -9639,11 +9648,11 @@
       <c r="D356">
         <v>9</v>
       </c>
-      <c r="E356" s="1" t="s">
-        <v>659</v>
+      <c r="E356" t="s">
+        <v>660</v>
       </c>
       <c r="F356" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -9660,10 +9669,10 @@
         <v>5</v>
       </c>
       <c r="E357" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F357" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -9680,10 +9689,10 @@
         <v>11</v>
       </c>
       <c r="E358" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F358" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -9700,10 +9709,10 @@
         <v>12</v>
       </c>
       <c r="E359" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F359" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -9720,10 +9729,10 @@
         <v>6</v>
       </c>
       <c r="E360" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F360" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -9740,10 +9749,10 @@
         <v>6</v>
       </c>
       <c r="E361" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F361" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -9760,10 +9769,10 @@
         <v>4</v>
       </c>
       <c r="E362" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F362" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -9780,30 +9789,30 @@
         <v>12</v>
       </c>
       <c r="E363" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F363" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
         <v>1993</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="1">
         <v>5</v>
       </c>
-      <c r="C364">
-        <v>16</v>
-      </c>
-      <c r="D364">
-        <v>12</v>
-      </c>
-      <c r="E364" t="s">
-        <v>384</v>
-      </c>
-      <c r="F364" t="s">
-        <v>374</v>
+      <c r="C364" s="1">
+        <v>16</v>
+      </c>
+      <c r="D364" s="2">
+        <v>14</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -9820,10 +9829,10 @@
         <v>14</v>
       </c>
       <c r="E365" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F365" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -9840,10 +9849,10 @@
         <v>9</v>
       </c>
       <c r="E366" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F366" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -9860,10 +9869,10 @@
         <v>3</v>
       </c>
       <c r="E367" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F367" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -9880,10 +9889,10 @@
         <v>2</v>
       </c>
       <c r="E368" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F368" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
@@ -9900,10 +9909,10 @@
         <v>5</v>
       </c>
       <c r="E369" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F369" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
@@ -9920,10 +9929,10 @@
         <v>5</v>
       </c>
       <c r="E370" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F370" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
@@ -9940,10 +9949,10 @@
         <v>7</v>
       </c>
       <c r="E371" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F371" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
@@ -9960,10 +9969,10 @@
         <v>6</v>
       </c>
       <c r="E372" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F372" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
@@ -9980,10 +9989,10 @@
         <v>6</v>
       </c>
       <c r="E373" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F373" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
@@ -10000,10 +10009,10 @@
         <v>9</v>
       </c>
       <c r="E374" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F374" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
@@ -10020,10 +10029,10 @@
         <v>10</v>
       </c>
       <c r="E375" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F375" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
@@ -10040,10 +10049,10 @@
         <v>10</v>
       </c>
       <c r="E376" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F376" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
@@ -10060,10 +10069,10 @@
         <v>6</v>
       </c>
       <c r="E377" t="s">
+        <v>399</v>
+      </c>
+      <c r="F377" t="s">
         <v>398</v>
-      </c>
-      <c r="F377" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
@@ -10080,10 +10089,10 @@
         <v>3</v>
       </c>
       <c r="E378" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F378" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
@@ -10100,10 +10109,10 @@
         <v>7</v>
       </c>
       <c r="E379" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F379" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
@@ -10120,10 +10129,10 @@
         <v>4</v>
       </c>
       <c r="E380" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F380" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
@@ -10140,10 +10149,10 @@
         <v>2</v>
       </c>
       <c r="E381" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F381" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
@@ -10160,13 +10169,13 @@
         <v>11</v>
       </c>
       <c r="E382" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F382" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G382" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
@@ -10183,13 +10192,13 @@
         <v>10</v>
       </c>
       <c r="E383" t="s">
+        <v>406</v>
+      </c>
+      <c r="F383" t="s">
+        <v>398</v>
+      </c>
+      <c r="G383" t="s">
         <v>405</v>
-      </c>
-      <c r="F383" t="s">
-        <v>397</v>
-      </c>
-      <c r="G383" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
@@ -10206,13 +10215,13 @@
         <v>10</v>
       </c>
       <c r="E384" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F384" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G384" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
@@ -10229,13 +10238,13 @@
         <v>10</v>
       </c>
       <c r="E385" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F385" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G385" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
@@ -10252,13 +10261,13 @@
         <v>4</v>
       </c>
       <c r="E386" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F386" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G386" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
@@ -10275,13 +10284,13 @@
         <v>10</v>
       </c>
       <c r="E387" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F387" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G387" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
@@ -10297,11 +10306,11 @@
       <c r="D388">
         <v>13</v>
       </c>
-      <c r="E388" s="1" t="s">
-        <v>653</v>
+      <c r="E388" t="s">
+        <v>654</v>
       </c>
       <c r="F388" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
@@ -10318,10 +10327,10 @@
         <v>14</v>
       </c>
       <c r="E389" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F389" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
@@ -10338,10 +10347,10 @@
         <v>5</v>
       </c>
       <c r="E390" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F390" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
@@ -10358,10 +10367,10 @@
         <v>5</v>
       </c>
       <c r="E391" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F391" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
@@ -10378,13 +10387,13 @@
         <v>14</v>
       </c>
       <c r="E392" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F392" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G392" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
@@ -10401,13 +10410,13 @@
         <v>10</v>
       </c>
       <c r="E393" t="s">
+        <v>416</v>
+      </c>
+      <c r="F393" t="s">
+        <v>398</v>
+      </c>
+      <c r="G393" t="s">
         <v>415</v>
-      </c>
-      <c r="F393" t="s">
-        <v>397</v>
-      </c>
-      <c r="G393" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
@@ -10424,13 +10433,13 @@
         <v>10</v>
       </c>
       <c r="E394" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F394" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G394" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
@@ -10447,13 +10456,13 @@
         <v>6</v>
       </c>
       <c r="E395" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F395" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G395" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
@@ -10470,10 +10479,10 @@
         <v>4</v>
       </c>
       <c r="E396" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F396" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
@@ -10490,10 +10499,10 @@
         <v>9</v>
       </c>
       <c r="E397" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F397" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
@@ -10510,10 +10519,10 @@
         <v>12</v>
       </c>
       <c r="E398" t="s">
+        <v>422</v>
+      </c>
+      <c r="F398" t="s">
         <v>421</v>
-      </c>
-      <c r="F398" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
@@ -10530,13 +10539,13 @@
         <v>7</v>
       </c>
       <c r="E399" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F399" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G399" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
@@ -10553,13 +10562,13 @@
         <v>14</v>
       </c>
       <c r="E400" t="s">
+        <v>425</v>
+      </c>
+      <c r="F400" t="s">
+        <v>421</v>
+      </c>
+      <c r="G400" t="s">
         <v>424</v>
-      </c>
-      <c r="F400" t="s">
-        <v>420</v>
-      </c>
-      <c r="G400" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
@@ -10576,13 +10585,13 @@
         <v>2</v>
       </c>
       <c r="E401" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F401" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G401" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
@@ -10599,13 +10608,13 @@
         <v>3</v>
       </c>
       <c r="E402" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F402" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G402" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
@@ -10622,36 +10631,36 @@
         <v>15</v>
       </c>
       <c r="E403" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F403" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G403" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A404">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
         <v>1994</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="1">
         <v>5</v>
       </c>
-      <c r="C404">
-        <v>16</v>
-      </c>
-      <c r="D404">
-        <v>13</v>
-      </c>
-      <c r="E404" t="s">
-        <v>221</v>
-      </c>
-      <c r="F404" t="s">
-        <v>420</v>
-      </c>
-      <c r="G404" t="s">
-        <v>423</v>
+      <c r="C404" s="1">
+        <v>16</v>
+      </c>
+      <c r="D404" s="2">
+        <v>14</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
@@ -10668,13 +10677,13 @@
         <v>8</v>
       </c>
       <c r="E405" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F405" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G405" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
@@ -10691,13 +10700,13 @@
         <v>10</v>
       </c>
       <c r="E406" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F406" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G406" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
@@ -10714,13 +10723,13 @@
         <v>6</v>
       </c>
       <c r="E407" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F407" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G407" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
@@ -10737,10 +10746,10 @@
         <v>4</v>
       </c>
       <c r="E408" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F408" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
@@ -10757,10 +10766,10 @@
         <v>13</v>
       </c>
       <c r="E409" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F409" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
@@ -10777,10 +10786,10 @@
         <v>4</v>
       </c>
       <c r="E410" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F410" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
@@ -10797,10 +10806,10 @@
         <v>7</v>
       </c>
       <c r="E411" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F411" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
@@ -10817,10 +10826,10 @@
         <v>3</v>
       </c>
       <c r="E412" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F412" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
@@ -10837,10 +10846,10 @@
         <v>2</v>
       </c>
       <c r="E413" t="s">
+        <v>438</v>
+      </c>
+      <c r="F413" t="s">
         <v>437</v>
-      </c>
-      <c r="F413" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
@@ -10857,10 +10866,10 @@
         <v>1</v>
       </c>
       <c r="E414" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F414" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
@@ -10877,10 +10886,10 @@
         <v>10</v>
       </c>
       <c r="E415" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F415" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
@@ -10897,10 +10906,10 @@
         <v>11</v>
       </c>
       <c r="E416" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F416" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -10917,10 +10926,10 @@
         <v>11</v>
       </c>
       <c r="E417" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F417" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -10937,10 +10946,10 @@
         <v>4</v>
       </c>
       <c r="E418" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F418" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -10957,10 +10966,10 @@
         <v>4</v>
       </c>
       <c r="E419" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F419" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -10977,10 +10986,10 @@
         <v>8</v>
       </c>
       <c r="E420" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F420" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -10997,10 +11006,10 @@
         <v>9</v>
       </c>
       <c r="E421" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F421" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -11017,10 +11026,10 @@
         <v>10</v>
       </c>
       <c r="E422" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F422" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -11037,10 +11046,10 @@
         <v>12</v>
       </c>
       <c r="E423" t="s">
+        <v>449</v>
+      </c>
+      <c r="F423" t="s">
         <v>448</v>
-      </c>
-      <c r="F423" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -11057,10 +11066,10 @@
         <v>13</v>
       </c>
       <c r="E424" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F424" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -11077,10 +11086,10 @@
         <v>3</v>
       </c>
       <c r="E425" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F425" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -11097,10 +11106,10 @@
         <v>13</v>
       </c>
       <c r="E426" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F426" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -11117,30 +11126,30 @@
         <v>14</v>
       </c>
       <c r="E427" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F427" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A428">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
         <v>1993</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="1">
         <v>5</v>
       </c>
-      <c r="C428">
-        <v>16</v>
-      </c>
-      <c r="D428">
-        <v>14</v>
-      </c>
-      <c r="E428" t="s">
-        <v>453</v>
-      </c>
-      <c r="F428" t="s">
-        <v>447</v>
+      <c r="C428" s="1">
+        <v>16</v>
+      </c>
+      <c r="D428" s="2">
+        <v>6</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -11157,10 +11166,10 @@
         <v>15</v>
       </c>
       <c r="E429" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F429" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -11177,10 +11186,10 @@
         <v>4</v>
       </c>
       <c r="E430" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F430" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -11197,10 +11206,10 @@
         <v>3</v>
       </c>
       <c r="E431" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F431" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -11217,10 +11226,10 @@
         <v>5</v>
       </c>
       <c r="E432" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F432" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
@@ -11237,10 +11246,10 @@
         <v>12</v>
       </c>
       <c r="E433" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F433" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
@@ -11257,10 +11266,10 @@
         <v>1</v>
       </c>
       <c r="E434" t="s">
+        <v>461</v>
+      </c>
+      <c r="F434" t="s">
         <v>460</v>
-      </c>
-      <c r="F434" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
@@ -11277,10 +11286,10 @@
         <v>2</v>
       </c>
       <c r="E435" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F435" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
@@ -11297,13 +11306,13 @@
         <v>8</v>
       </c>
       <c r="E436" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F436" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G436" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
@@ -11320,13 +11329,13 @@
         <v>2</v>
       </c>
       <c r="E437" t="s">
+        <v>465</v>
+      </c>
+      <c r="F437" t="s">
+        <v>460</v>
+      </c>
+      <c r="G437" t="s">
         <v>464</v>
-      </c>
-      <c r="F437" t="s">
-        <v>459</v>
-      </c>
-      <c r="G437" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
@@ -11343,30 +11352,30 @@
         <v>10</v>
       </c>
       <c r="E438" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F438" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A439">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
         <v>1990</v>
       </c>
-      <c r="B439">
-        <v>1</v>
-      </c>
-      <c r="C439">
-        <v>12</v>
-      </c>
-      <c r="D439">
-        <v>2</v>
-      </c>
-      <c r="E439" t="s">
-        <v>466</v>
-      </c>
-      <c r="F439" t="s">
-        <v>459</v>
+      <c r="B439" s="1">
+        <v>1</v>
+      </c>
+      <c r="C439" s="1">
+        <v>12</v>
+      </c>
+      <c r="D439" s="2">
+        <v>11</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
@@ -11383,10 +11392,10 @@
         <v>3</v>
       </c>
       <c r="E440" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F440" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
@@ -11403,13 +11412,13 @@
         <v>7</v>
       </c>
       <c r="E441" t="s">
+        <v>217</v>
+      </c>
+      <c r="F441" t="s">
+        <v>460</v>
+      </c>
+      <c r="G441" t="s">
         <v>218</v>
-      </c>
-      <c r="F441" t="s">
-        <v>459</v>
-      </c>
-      <c r="G441" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
@@ -11426,13 +11435,13 @@
         <v>4</v>
       </c>
       <c r="E442" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F442" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G442" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
@@ -11449,10 +11458,10 @@
         <v>7</v>
       </c>
       <c r="E443" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F443" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
@@ -11469,10 +11478,10 @@
         <v>6</v>
       </c>
       <c r="E444" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F444" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
@@ -11489,10 +11498,10 @@
         <v>6</v>
       </c>
       <c r="E445" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F445" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
@@ -11509,10 +11518,10 @@
         <v>3</v>
       </c>
       <c r="E446" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F446" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
@@ -11529,10 +11538,10 @@
         <v>11</v>
       </c>
       <c r="E447" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F447" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
@@ -11549,10 +11558,10 @@
         <v>1</v>
       </c>
       <c r="E448" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F448" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -11569,10 +11578,10 @@
         <v>10</v>
       </c>
       <c r="E449" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F449" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -11589,10 +11598,10 @@
         <v>1</v>
       </c>
       <c r="E450" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F450" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -11609,10 +11618,10 @@
         <v>4</v>
       </c>
       <c r="E451" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F451" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -11629,10 +11638,10 @@
         <v>8</v>
       </c>
       <c r="E452" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F452" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -11649,10 +11658,10 @@
         <v>2</v>
       </c>
       <c r="E453" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F453" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -11669,10 +11678,10 @@
         <v>5</v>
       </c>
       <c r="E454" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F454" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -11689,10 +11698,10 @@
         <v>8</v>
       </c>
       <c r="E455" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F455" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -11709,10 +11718,10 @@
         <v>13</v>
       </c>
       <c r="E456" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F456" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -11729,10 +11738,10 @@
         <v>15</v>
       </c>
       <c r="E457" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F457" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -11749,10 +11758,10 @@
         <v>11</v>
       </c>
       <c r="E458" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F458" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -11769,10 +11778,10 @@
         <v>13</v>
       </c>
       <c r="E459" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F459" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -11789,10 +11798,10 @@
         <v>19</v>
       </c>
       <c r="E460" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F460" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -11809,10 +11818,10 @@
         <v>1</v>
       </c>
       <c r="E461" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F461" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -11829,10 +11838,10 @@
         <v>2</v>
       </c>
       <c r="E462" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F462" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -11849,10 +11858,10 @@
         <v>3</v>
       </c>
       <c r="E463" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F463" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -11869,10 +11878,10 @@
         <v>15</v>
       </c>
       <c r="E464" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F464" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.3">
@@ -11889,13 +11898,13 @@
         <v>1</v>
       </c>
       <c r="E465" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F465" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G465" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.3">
@@ -11912,13 +11921,13 @@
         <v>12</v>
       </c>
       <c r="E466" t="s">
+        <v>492</v>
+      </c>
+      <c r="F466" t="s">
+        <v>460</v>
+      </c>
+      <c r="G466" t="s">
         <v>491</v>
-      </c>
-      <c r="F466" t="s">
-        <v>459</v>
-      </c>
-      <c r="G466" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.3">
@@ -11935,10 +11944,10 @@
         <v>4</v>
       </c>
       <c r="E467" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F467" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.3">
@@ -11955,10 +11964,10 @@
         <v>5</v>
       </c>
       <c r="E468" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F468" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.3">
@@ -11975,10 +11984,10 @@
         <v>9</v>
       </c>
       <c r="E469" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F469" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.3">
@@ -11995,10 +12004,10 @@
         <v>1</v>
       </c>
       <c r="E470" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F470" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.3">
@@ -12015,10 +12024,10 @@
         <v>1</v>
       </c>
       <c r="E471" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F471" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.3">
@@ -12035,10 +12044,10 @@
         <v>12</v>
       </c>
       <c r="E472" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F472" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.3">
@@ -12055,10 +12064,10 @@
         <v>4</v>
       </c>
       <c r="E473" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F473" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.3">
@@ -12075,10 +12084,10 @@
         <v>5</v>
       </c>
       <c r="E474" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F474" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.3">
@@ -12094,11 +12103,11 @@
       <c r="D475">
         <v>5</v>
       </c>
-      <c r="E475" s="1" t="s">
-        <v>655</v>
+      <c r="E475" t="s">
+        <v>656</v>
       </c>
       <c r="F475" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.3">
@@ -12115,10 +12124,10 @@
         <v>1</v>
       </c>
       <c r="E476" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F476" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.3">
@@ -12135,10 +12144,10 @@
         <v>9</v>
       </c>
       <c r="E477" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F477" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.3">
@@ -12155,10 +12164,10 @@
         <v>1</v>
       </c>
       <c r="E478" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F478" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.3">
@@ -12175,10 +12184,10 @@
         <v>1</v>
       </c>
       <c r="E479" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F479" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.3">
@@ -12195,10 +12204,10 @@
         <v>15</v>
       </c>
       <c r="E480" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F480" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -12215,10 +12224,10 @@
         <v>1</v>
       </c>
       <c r="E481" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F481" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -12235,10 +12244,10 @@
         <v>1</v>
       </c>
       <c r="E482" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F482" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -12255,10 +12264,10 @@
         <v>12</v>
       </c>
       <c r="E483" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F483" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -12275,10 +12284,10 @@
         <v>12</v>
       </c>
       <c r="E484" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F484" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -12295,10 +12304,10 @@
         <v>12</v>
       </c>
       <c r="E485" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F485" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -12315,10 +12324,10 @@
         <v>12</v>
       </c>
       <c r="E486" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F486" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -12335,10 +12344,10 @@
         <v>1</v>
       </c>
       <c r="E487" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F487" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -12355,10 +12364,10 @@
         <v>6</v>
       </c>
       <c r="E488" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F488" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -12375,10 +12384,10 @@
         <v>7</v>
       </c>
       <c r="E489" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F489" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -12395,30 +12404,30 @@
         <v>1</v>
       </c>
       <c r="E490" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F490" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A491">
         <v>1995</v>
       </c>
-      <c r="B491" s="1">
-        <v>1</v>
-      </c>
-      <c r="C491" s="1">
-        <v>16</v>
-      </c>
-      <c r="D491" s="1">
-        <v>2</v>
-      </c>
-      <c r="E491" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F491" s="1" t="s">
-        <v>459</v>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491">
+        <v>16</v>
+      </c>
+      <c r="D491">
+        <v>2</v>
+      </c>
+      <c r="E491" t="s">
+        <v>516</v>
+      </c>
+      <c r="F491" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -12435,10 +12444,10 @@
         <v>7</v>
       </c>
       <c r="E492" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F492" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -12455,10 +12464,10 @@
         <v>9</v>
       </c>
       <c r="E493" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F493" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -12475,10 +12484,10 @@
         <v>1</v>
       </c>
       <c r="E494" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F494" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -12495,10 +12504,10 @@
         <v>7</v>
       </c>
       <c r="E495" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F495" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -12515,10 +12524,10 @@
         <v>1</v>
       </c>
       <c r="E496" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F496" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -12535,10 +12544,10 @@
         <v>2</v>
       </c>
       <c r="E497" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F497" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -12555,10 +12564,10 @@
         <v>3</v>
       </c>
       <c r="E498" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F498" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -12575,10 +12584,10 @@
         <v>4</v>
       </c>
       <c r="E499" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F499" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -12595,10 +12604,10 @@
         <v>4</v>
       </c>
       <c r="E500" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F500" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -12615,10 +12624,10 @@
         <v>6</v>
       </c>
       <c r="E501" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F501" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -12635,10 +12644,10 @@
         <v>1</v>
       </c>
       <c r="E502" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F502" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -12655,10 +12664,10 @@
         <v>2</v>
       </c>
       <c r="E503" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F503" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -12675,10 +12684,10 @@
         <v>1</v>
       </c>
       <c r="E504" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F504" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -12695,10 +12704,10 @@
         <v>10</v>
       </c>
       <c r="E505" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F505" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -12715,10 +12724,10 @@
         <v>11</v>
       </c>
       <c r="E506" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F506" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -12735,10 +12744,10 @@
         <v>4</v>
       </c>
       <c r="E507" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F507" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -12755,10 +12764,10 @@
         <v>4</v>
       </c>
       <c r="E508" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F508" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -12775,10 +12784,10 @@
         <v>4</v>
       </c>
       <c r="E509" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F509" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -12795,10 +12804,10 @@
         <v>8</v>
       </c>
       <c r="E510" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F510" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -12815,10 +12824,10 @@
         <v>11</v>
       </c>
       <c r="E511" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F511" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -12835,10 +12844,10 @@
         <v>3</v>
       </c>
       <c r="E512" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F512" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.3">
@@ -12855,10 +12864,10 @@
         <v>7</v>
       </c>
       <c r="E513" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F513" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.3">
@@ -12875,10 +12884,10 @@
         <v>7</v>
       </c>
       <c r="E514" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F514" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.3">
@@ -12895,10 +12904,10 @@
         <v>9</v>
       </c>
       <c r="E515" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F515" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.3">
@@ -12915,10 +12924,10 @@
         <v>1</v>
       </c>
       <c r="E516" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F516" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.3">
@@ -12935,10 +12944,10 @@
         <v>2</v>
       </c>
       <c r="E517" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F517" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.3">
@@ -12955,13 +12964,13 @@
         <v>7</v>
       </c>
       <c r="E518" t="s">
+        <v>217</v>
+      </c>
+      <c r="F518" t="s">
+        <v>542</v>
+      </c>
+      <c r="G518" t="s">
         <v>218</v>
-      </c>
-      <c r="F518" t="s">
-        <v>541</v>
-      </c>
-      <c r="G518" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.3">
@@ -12978,13 +12987,13 @@
         <v>4</v>
       </c>
       <c r="E519" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F519" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G519" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.3">
@@ -13001,10 +13010,10 @@
         <v>10</v>
       </c>
       <c r="E520" t="s">
+        <v>543</v>
+      </c>
+      <c r="F520" t="s">
         <v>542</v>
-      </c>
-      <c r="F520" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.3">
@@ -13021,10 +13030,10 @@
         <v>9</v>
       </c>
       <c r="E521" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F521" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.3">
@@ -13041,10 +13050,10 @@
         <v>15</v>
       </c>
       <c r="E522" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F522" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.3">
@@ -13061,10 +13070,10 @@
         <v>1</v>
       </c>
       <c r="E523" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F523" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.3">
@@ -13081,10 +13090,10 @@
         <v>8</v>
       </c>
       <c r="E524" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F524" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.3">
@@ -13101,10 +13110,10 @@
         <v>1</v>
       </c>
       <c r="E525" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F525" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.3">
@@ -13121,10 +13130,10 @@
         <v>9</v>
       </c>
       <c r="E526" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F526" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.3">
@@ -13141,10 +13150,10 @@
         <v>5</v>
       </c>
       <c r="E527" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F527" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.3">
@@ -13161,10 +13170,10 @@
         <v>11</v>
       </c>
       <c r="E528" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F528" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -13181,10 +13190,10 @@
         <v>9</v>
       </c>
       <c r="E529" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F529" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -13201,10 +13210,10 @@
         <v>5</v>
       </c>
       <c r="E530" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F530" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -13221,10 +13230,10 @@
         <v>7</v>
       </c>
       <c r="E531" t="s">
+        <v>554</v>
+      </c>
+      <c r="F531" t="s">
         <v>553</v>
-      </c>
-      <c r="F531" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -13241,10 +13250,10 @@
         <v>8</v>
       </c>
       <c r="E532" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F532" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -13261,10 +13270,10 @@
         <v>2</v>
       </c>
       <c r="E533" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F533" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -13281,10 +13290,10 @@
         <v>3</v>
       </c>
       <c r="E534" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F534" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -13301,10 +13310,10 @@
         <v>6</v>
       </c>
       <c r="E535" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F535" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -13321,10 +13330,10 @@
         <v>7</v>
       </c>
       <c r="E536" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F536" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -13341,10 +13350,10 @@
         <v>3</v>
       </c>
       <c r="E537" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F537" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -13361,10 +13370,10 @@
         <v>6</v>
       </c>
       <c r="E538" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F538" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
@@ -13381,10 +13390,10 @@
         <v>7</v>
       </c>
       <c r="E539" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F539" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
@@ -13401,10 +13410,10 @@
         <v>3</v>
       </c>
       <c r="E540" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F540" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -13421,10 +13430,10 @@
         <v>4</v>
       </c>
       <c r="E541" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F541" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -13441,10 +13450,10 @@
         <v>2</v>
       </c>
       <c r="E542" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F542" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -13461,10 +13470,10 @@
         <v>9</v>
       </c>
       <c r="E543" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F543" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -13481,10 +13490,10 @@
         <v>3</v>
       </c>
       <c r="E544" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F544" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
@@ -13501,10 +13510,10 @@
         <v>7</v>
       </c>
       <c r="E545" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F545" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -13521,10 +13530,10 @@
         <v>1</v>
       </c>
       <c r="E546" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F546" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
@@ -13541,10 +13550,10 @@
         <v>6</v>
       </c>
       <c r="E547" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F547" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
@@ -13561,10 +13570,10 @@
         <v>6</v>
       </c>
       <c r="E548" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F548" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
@@ -13581,10 +13590,10 @@
         <v>7</v>
       </c>
       <c r="E549" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F549" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -13601,10 +13610,10 @@
         <v>1</v>
       </c>
       <c r="E550" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F550" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
@@ -13621,10 +13630,10 @@
         <v>3</v>
       </c>
       <c r="E551" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F551" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
@@ -13641,10 +13650,10 @@
         <v>9</v>
       </c>
       <c r="E552" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F552" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -13661,10 +13670,10 @@
         <v>1</v>
       </c>
       <c r="E553" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F553" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -13681,10 +13690,10 @@
         <v>9</v>
       </c>
       <c r="E554" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F554" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -13701,10 +13710,10 @@
         <v>10</v>
       </c>
       <c r="E555" t="s">
+        <v>579</v>
+      </c>
+      <c r="F555" t="s">
         <v>578</v>
-      </c>
-      <c r="F555" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -13721,10 +13730,10 @@
         <v>4</v>
       </c>
       <c r="E556" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F556" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
@@ -13741,10 +13750,10 @@
         <v>10</v>
       </c>
       <c r="E557" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F557" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -13761,10 +13770,10 @@
         <v>4</v>
       </c>
       <c r="E558" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F558" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -13781,10 +13790,10 @@
         <v>2</v>
       </c>
       <c r="E559" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F559" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
@@ -13801,10 +13810,10 @@
         <v>4</v>
       </c>
       <c r="E560" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F560" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -13821,10 +13830,10 @@
         <v>1</v>
       </c>
       <c r="E561" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F561" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
@@ -13841,10 +13850,10 @@
         <v>8</v>
       </c>
       <c r="E562" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F562" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
@@ -13861,10 +13870,10 @@
         <v>9</v>
       </c>
       <c r="E563" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F563" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
@@ -13881,10 +13890,10 @@
         <v>6</v>
       </c>
       <c r="E564" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F564" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.3">
@@ -13901,10 +13910,10 @@
         <v>4</v>
       </c>
       <c r="E565" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F565" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.3">
@@ -13921,10 +13930,10 @@
         <v>11</v>
       </c>
       <c r="E566" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F566" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.3">
@@ -13941,10 +13950,10 @@
         <v>11</v>
       </c>
       <c r="E567" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F567" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
@@ -13961,10 +13970,10 @@
         <v>15</v>
       </c>
       <c r="E568" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F568" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
@@ -13981,10 +13990,10 @@
         <v>2</v>
       </c>
       <c r="E569" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F569" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
@@ -14001,10 +14010,10 @@
         <v>15</v>
       </c>
       <c r="E570" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F570" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
@@ -14021,10 +14030,10 @@
         <v>8</v>
       </c>
       <c r="E571" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F571" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.3">
@@ -14041,10 +14050,10 @@
         <v>4</v>
       </c>
       <c r="E572" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F572" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.3">
@@ -14061,10 +14070,10 @@
         <v>8</v>
       </c>
       <c r="E573" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F573" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
@@ -14081,10 +14090,10 @@
         <v>10</v>
       </c>
       <c r="E574" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F574" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.3">
@@ -14101,10 +14110,10 @@
         <v>9</v>
       </c>
       <c r="E575" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F575" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.3">
@@ -14121,10 +14130,10 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F576" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.3">
@@ -14141,10 +14150,10 @@
         <v>5</v>
       </c>
       <c r="E577" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F577" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.3">
@@ -14161,10 +14170,10 @@
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F578" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.3">
@@ -14178,13 +14187,13 @@
         <v>8</v>
       </c>
       <c r="D579" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E579" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F579" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.3">
@@ -14201,13 +14210,13 @@
         <v>3</v>
       </c>
       <c r="E580" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F580" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G580" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.3">
@@ -14224,13 +14233,13 @@
         <v>6</v>
       </c>
       <c r="E581" t="s">
+        <v>606</v>
+      </c>
+      <c r="F581" t="s">
+        <v>604</v>
+      </c>
+      <c r="G581" t="s">
         <v>605</v>
-      </c>
-      <c r="F581" t="s">
-        <v>603</v>
-      </c>
-      <c r="G581" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.3">
@@ -14247,53 +14256,53 @@
         <v>5</v>
       </c>
       <c r="E582" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F582" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G582" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B583" s="2">
+        <v>4</v>
+      </c>
+      <c r="C583" s="1">
+        <v>12</v>
+      </c>
+      <c r="D583" s="1">
+        <v>7</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F583" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A583">
+    <row r="584" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
         <v>1990</v>
       </c>
-      <c r="B583">
-        <v>3</v>
-      </c>
-      <c r="C583">
-        <v>12</v>
-      </c>
-      <c r="D583">
-        <v>7</v>
-      </c>
-      <c r="E583" t="s">
-        <v>607</v>
-      </c>
-      <c r="F583" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A584">
-        <v>1990</v>
-      </c>
-      <c r="B584">
-        <v>4</v>
-      </c>
-      <c r="C584">
-        <v>16</v>
-      </c>
-      <c r="D584">
+      <c r="B584" s="2">
+        <v>5</v>
+      </c>
+      <c r="C584" s="1">
+        <v>16</v>
+      </c>
+      <c r="D584" s="1">
         <v>10</v>
       </c>
-      <c r="E584" t="s">
-        <v>608</v>
-      </c>
-      <c r="F584" t="s">
-        <v>603</v>
+      <c r="E584" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.3">
@@ -14310,10 +14319,10 @@
         <v>8</v>
       </c>
       <c r="E585" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F585" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.3">
@@ -14330,10 +14339,10 @@
         <v>6</v>
       </c>
       <c r="E586" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F586" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.3">
@@ -14350,10 +14359,10 @@
         <v>14</v>
       </c>
       <c r="E587" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F587" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.3">
@@ -14370,10 +14379,10 @@
         <v>14</v>
       </c>
       <c r="E588" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F588" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.3">
@@ -14390,10 +14399,10 @@
         <v>8</v>
       </c>
       <c r="E589" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F589" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.3">
@@ -14410,10 +14419,10 @@
         <v>2</v>
       </c>
       <c r="E590" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F590" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.3">
@@ -14430,10 +14439,10 @@
         <v>15</v>
       </c>
       <c r="E591" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F591" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.3">
@@ -14450,10 +14459,10 @@
         <v>8</v>
       </c>
       <c r="E592" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F592" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.3">
@@ -14470,13 +14479,13 @@
         <v>13</v>
       </c>
       <c r="E593" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F593" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G593" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.3">
@@ -14493,13 +14502,13 @@
         <v>6</v>
       </c>
       <c r="E594" t="s">
+        <v>620</v>
+      </c>
+      <c r="F594" t="s">
+        <v>604</v>
+      </c>
+      <c r="G594" t="s">
         <v>619</v>
-      </c>
-      <c r="F594" t="s">
-        <v>603</v>
-      </c>
-      <c r="G594" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.3">
@@ -14516,10 +14525,10 @@
         <v>5</v>
       </c>
       <c r="E595" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F595" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.3">
@@ -14536,10 +14545,10 @@
         <v>5</v>
       </c>
       <c r="E596" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F596" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.3">
@@ -14556,10 +14565,10 @@
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F597" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.3">
@@ -14576,10 +14585,10 @@
         <v>3</v>
       </c>
       <c r="E598" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F598" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.3">
@@ -14595,11 +14604,11 @@
       <c r="D599">
         <v>6</v>
       </c>
-      <c r="E599" s="1" t="s">
-        <v>662</v>
+      <c r="E599" t="s">
+        <v>663</v>
       </c>
       <c r="F599" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.3">
@@ -14616,10 +14625,10 @@
         <v>9</v>
       </c>
       <c r="E600" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F600" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.3">
@@ -14636,10 +14645,10 @@
         <v>9</v>
       </c>
       <c r="E601" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F601" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.3">
@@ -14656,10 +14665,10 @@
         <v>5</v>
       </c>
       <c r="E602" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F602" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.3">
@@ -14676,10 +14685,10 @@
         <v>4</v>
       </c>
       <c r="E603" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F603" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.3">
@@ -14696,10 +14705,10 @@
         <v>7</v>
       </c>
       <c r="E604" t="s">
+        <v>630</v>
+      </c>
+      <c r="F604" t="s">
         <v>629</v>
-      </c>
-      <c r="F604" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.3">
@@ -14716,10 +14725,10 @@
         <v>7</v>
       </c>
       <c r="E605" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F605" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.3">
@@ -14736,10 +14745,10 @@
         <v>5</v>
       </c>
       <c r="E606" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F606" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.3">
@@ -14756,10 +14765,10 @@
         <v>7</v>
       </c>
       <c r="E607" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F607" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.3">
@@ -14776,10 +14785,10 @@
         <v>9</v>
       </c>
       <c r="E608" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F608" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.3">
@@ -14796,10 +14805,10 @@
         <v>5</v>
       </c>
       <c r="E609" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F609" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.3">
@@ -14816,10 +14825,10 @@
         <v>8</v>
       </c>
       <c r="E610" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F610" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.3">
@@ -14836,10 +14845,10 @@
         <v>14</v>
       </c>
       <c r="E611" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F611" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.3">
@@ -14856,10 +14865,10 @@
         <v>15</v>
       </c>
       <c r="E612" t="s">
+        <v>638</v>
+      </c>
+      <c r="F612" t="s">
         <v>637</v>
-      </c>
-      <c r="F612" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.3">
@@ -14876,10 +14885,10 @@
         <v>13</v>
       </c>
       <c r="E613" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F613" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.3">
@@ -14896,10 +14905,10 @@
         <v>13</v>
       </c>
       <c r="E614" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F614" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.3">
@@ -14915,11 +14924,11 @@
       <c r="D615">
         <v>19</v>
       </c>
-      <c r="E615" s="1" t="s">
-        <v>663</v>
+      <c r="E615" t="s">
+        <v>664</v>
       </c>
       <c r="F615" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.3">
@@ -14936,10 +14945,10 @@
         <v>6</v>
       </c>
       <c r="E616" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F616" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.3">
@@ -14956,10 +14965,10 @@
         <v>13</v>
       </c>
       <c r="E617" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F617" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.3">
@@ -14976,10 +14985,10 @@
         <v>9</v>
       </c>
       <c r="E618" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F618" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.3">
@@ -14996,10 +15005,10 @@
         <v>12</v>
       </c>
       <c r="E619" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F619" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.3">
@@ -15016,10 +15025,10 @@
         <v>8</v>
       </c>
       <c r="E620" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F620" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.3">
@@ -15036,10 +15045,10 @@
         <v>11</v>
       </c>
       <c r="E621" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F621" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.3">
@@ -15056,10 +15065,10 @@
         <v>12</v>
       </c>
       <c r="E622" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F622" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.3">
@@ -15076,10 +15085,10 @@
         <v>6</v>
       </c>
       <c r="E623" t="s">
+        <v>649</v>
+      </c>
+      <c r="F623" t="s">
         <v>648</v>
-      </c>
-      <c r="F623" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.3">
@@ -15096,10 +15105,10 @@
         <v>13</v>
       </c>
       <c r="E624" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F624" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.3">
@@ -15116,10 +15125,10 @@
         <v>6</v>
       </c>
       <c r="E625" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F625" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.3">
@@ -15136,10 +15145,10 @@
         <v>14</v>
       </c>
       <c r="E626" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F626" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.3">
@@ -15156,10 +15165,10 @@
         <v>8</v>
       </c>
       <c r="E627" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F627" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.3">
@@ -15176,10 +15185,10 @@
         <v>6</v>
       </c>
       <c r="E628" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F628" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
